--- a/HomeOffice.xlsx
+++ b/HomeOffice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t xml:space="preserve">Tábla</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Felhasználó típus</t>
   </si>
   <si>
+    <t xml:space="preserve">Ügyfél</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tartalom</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t xml:space="preserve">Típus</t>
   </si>
   <si>
+    <t xml:space="preserve">Cím</t>
+  </si>
+  <si>
     <t xml:space="preserve">Munkavégző</t>
   </si>
   <si>
@@ -101,6 +107,24 @@
   </si>
   <si>
     <t xml:space="preserve">Felhasználó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recordok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miniboss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_creator</t>
   </si>
 </sst>
 </file>
@@ -110,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,8 +185,15 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,11 +209,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -190,6 +233,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -216,11 +274,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,6 +299,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,7 +315,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,6 +332,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,7 +380,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB6D7A8"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -299,7 +389,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB6D7A8"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -342,191 +432,253 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="F13" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="F14" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="F15" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="F16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="F17" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
